--- a/datatable/01/datatable.xlsx
+++ b/datatable/01/datatable.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OfficeWork\EclipseWorkspace2\Selenium_Automation_v1.1\datatable\01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahim\Desktop\Mohammed\Work\Technomatic\git\Selenium_AutomationFramework_v1.0\datatable\01\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BBADC4-F8BE-4530-B8C4-43190E7C86E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="StartPage" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>TC_Name</t>
   </si>
@@ -56,12 +57,75 @@
   </si>
   <si>
     <t>TC_004_SampleFunc</t>
+  </si>
+  <si>
+    <t>TC_001_CreateAutoQuote</t>
+  </si>
+  <si>
+    <t>TC_002_CreateAutoQuote</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>StreetNumber</t>
+  </si>
+  <si>
+    <t>Apt</t>
+  </si>
+  <si>
+    <t>Mohammed</t>
+  </si>
+  <si>
+    <t>MMMMM</t>
+  </si>
+  <si>
+    <t>10/10/1980</t>
+  </si>
+  <si>
+    <t>Lane 1</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Salman</t>
+  </si>
+  <si>
+    <t>Tanvir</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>SSSS</t>
+  </si>
+  <si>
+    <t>DDDD</t>
+  </si>
+  <si>
+    <t>TC_003_CreateAutoQuote</t>
+  </si>
+  <si>
+    <t>TC_004_CreateAutoQuote</t>
+  </si>
+  <si>
+    <t>TC_005_CreateAutoQuote</t>
+  </si>
+  <si>
+    <t>Faruk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -127,12 +191,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,22 +481,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -454,7 +523,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -481,7 +550,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -508,7 +577,7 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -535,7 +604,7 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -562,9 +631,13 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -581,7 +654,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -600,7 +673,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -619,7 +692,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -638,7 +711,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -657,7 +730,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -676,7 +749,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -695,7 +768,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -714,7 +787,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -733,7 +806,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -752,7 +825,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -771,7 +844,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -790,7 +863,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -809,7 +882,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -835,24 +908,222 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="26.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="7">
+        <v>33188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
